--- a/origin_data/Exp_2的副本.xlsx
+++ b/origin_data/Exp_2的副本.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10612"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10627"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiming/Workspace/Lecture/PHY207 Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiming/Workspace/Lecture/PHY207 Lab/Technical_Document/origin_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C1E2CD-A0AD-1B4B-B325-5F02EC89DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AFCCD2-6187-D449-9BDC-7CF32DAC2900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{971E5DFC-0392-074E-9AEF-BE83121E2531}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{971E5DFC-0392-074E-9AEF-BE83121E2531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -307,14 +313,15 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2576,6 +2583,94 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BEE5258-BE2D-B0E2-CB09-1DBB883A5283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13462000" y="2946400"/>
+          <a:ext cx="5702300" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F5C8E0-892F-6D30-5D1A-33CB8EAB209F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19773900" y="1435100"/>
+          <a:ext cx="5702300" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3339,32 +3434,32 @@
       </c>
       <c r="D5" s="5">
         <f ca="1" xml:space="preserve"> NORMINV(RAND(),($E$2*C5/$E$1+$H$1)*E5,$H$2)</f>
-        <v>8.1161882809177222</v>
+        <v>8.0927561385563997</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
       </c>
       <c r="F5" s="6">
         <f ca="1">D5/E5</f>
-        <v>2.0290470702294305</v>
+        <v>2.0231890346390999</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" ref="G5:G29" ca="1" si="0">$E$1*F5/C5</f>
-        <v>7.0435989112834603E-34</v>
+        <v>7.0232634278381964E-34</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="4">
         <f ca="1">AVERAGE(G5:G9)</f>
-        <v>6.984084119525083E-34</v>
+        <v>6.9560603648596824E-34</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="4">
         <f ca="1">J5-$E$2</f>
-        <v>3.5801396952508144E-35</v>
+        <v>3.2999021485968084E-35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3380,32 +3475,32 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" ref="D6:D29" ca="1" si="2" xml:space="preserve"> NORMINV(RAND(),($E$2*C6/$E$1+$H$1)*E6,$H$2)</f>
-        <v>8.1063379117214005</v>
+        <v>8.3090651566009495</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ref="F6:F9" ca="1" si="3">D6/E6</f>
-        <v>2.0265844779303501</v>
+        <v>2.0772662891502374</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0350503109620406E-34</v>
+        <v>7.2109862739901963E-34</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="4">
         <f ca="1">STDEV(G5:G9)</f>
-        <v>1.118972142055646E-35</v>
+        <v>1.7481198286866669E-35</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="4">
         <f ca="1">L5/$E$2</f>
-        <v>5.4031116698195741E-2</v>
+        <v>4.9801799164423392E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -3421,18 +3516,18 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>8.10815350874892</v>
+        <v>7.7937397193506355</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>2.02703837718723</v>
+        <v>1.9484349298376589</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0366259689930935E-34</v>
+        <v>6.7637633211532077E-34</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -3448,18 +3543,18 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0897716219220754</v>
+        <v>8.0102626218969775</v>
       </c>
       <c r="E8" s="2">
         <v>4</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0224429054805189</v>
+        <v>2.0025656554742444</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.020673327979909E-34</v>
+        <v>6.9516717860454124E-34</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3475,18 +3570,18 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8176019771327523</v>
+        <v>7.8707738003044678</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9544004942831881</v>
+        <v>1.967693450076117</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7844720784069114E-34</v>
+        <v>6.8306170152714E-34</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3502,32 +3597,32 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9825825878111623</v>
+        <v>9.0390626159086231</v>
       </c>
       <c r="E10" s="2">
         <v>4</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:F29" ca="1" si="5">D10/E10</f>
-        <v>2.2456456469527906</v>
+        <v>2.2597656539771558</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0759112681234301E-34</v>
+        <v>7.1204026672652594E-34</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J10" s="4">
         <f ca="1">AVERAGE(G25:G29)</f>
-        <v>6.8972383005496652E-34</v>
+        <v>6.9146416816459354E-34</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="4">
         <f ca="1">J10-$E$2</f>
-        <v>2.7116815054966368E-35</v>
+        <v>2.8857153164593382E-35</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3543,32 +3638,32 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>8.7331582759388571</v>
+        <v>8.6493078886167662</v>
       </c>
       <c r="E11" s="2">
         <v>4</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1832895689847143</v>
+        <v>2.1623269721541916</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8794305476103737E-34</v>
+        <v>6.8133785080450482E-34</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="4">
         <f ca="1">STDEV(G25:G29)</f>
-        <v>2.2791115795855923E-35</v>
+        <v>1.5050852270689863E-35</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="4">
         <f ca="1">L10/$E$2</f>
-        <v>4.0924430984127694E-2</v>
+        <v>4.3550932168433767E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3584,18 +3679,18 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>8.897951519255475</v>
+        <v>8.7492417741395485</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2244878798138688</v>
+        <v>2.1873104435348871</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0092442571861626E-34</v>
+        <v>6.8921001117403531E-34</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3611,18 +3706,18 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6685369653865418</v>
+        <v>8.5851956945029997</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1671342413466355</v>
+        <v>2.1462989236257499</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.828525960312896E-34</v>
+        <v>6.7628749705246378E-34</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3638,18 +3733,18 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>8.8873336769367164</v>
+        <v>8.9580145111865104</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2218334192341791</v>
+        <v>2.2395036277966276</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0008801915767463E-34</v>
+        <v>7.0565580889541799E-34</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3665,32 +3760,32 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9652598959151355</v>
+        <v>9.053257217345676</v>
       </c>
       <c r="E15" s="2">
         <v>4</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2413149739787839</v>
+        <v>2.263314304336419</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9066563046292792E-34</v>
+        <v>6.9744476750864417E-34</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">AVERAGE(G20:G24)</f>
-        <v>7.028150354243048E-34</v>
+        <v>7.0168570347392803E-34</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="4">
         <f ca="1">J15-$E$2</f>
-        <v>4.0208020424304645E-35</v>
+        <v>3.9078688473927876E-35</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3706,32 +3801,32 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>9.0929436493589684</v>
+        <v>8.9196033366850678</v>
       </c>
       <c r="E16" s="2">
         <v>4</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2732359123397421</v>
+        <v>2.2299008341712669</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0050213058629167E-34</v>
+        <v>6.8714834076564088E-34</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="4">
         <f ca="1">STDEV(G20:G24)</f>
-        <v>1.7088485765003518E-35</v>
+        <v>8.0654264591676798E-36</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="4">
         <f ca="1">L15/$E$2</f>
-        <v>6.0681549567211626E-2</v>
+        <v>5.897717287814689E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3747,18 +3842,18 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>8.8721216562671259</v>
+        <v>9.1588182896039214</v>
       </c>
       <c r="E17" s="2">
         <v>4</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2180304140667815</v>
+        <v>2.2897045724009804</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8349044739478174E-34</v>
+        <v>7.0557698067033991E-34</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3774,18 +3869,18 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9374002554137206</v>
+        <v>8.7514724231747696</v>
       </c>
       <c r="E18" s="2">
         <v>4</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2343500638534302</v>
+        <v>2.1878681057936924</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8851937966877662E-34</v>
+        <v>6.7419587260207906E-34</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3801,18 +3896,18 @@
       </c>
       <c r="D19" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1072867226189747</v>
+        <v>9.155263292950572</v>
       </c>
       <c r="E19" s="2">
         <v>4</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2768216806547437</v>
+        <v>2.288815823237643</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0160709216586754E-34</v>
+        <v>7.053031108625055E-34</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -3828,32 +3923,32 @@
       </c>
       <c r="D20" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8375976625088626</v>
+        <v>9.8686286179801783</v>
       </c>
       <c r="E20" s="2">
         <v>4</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4593994156272156</v>
+        <v>2.4671571544950446</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9876289719070253E-34</v>
+        <v>7.0096702070658558E-34</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J20" s="4">
         <f ca="1">AVERAGE(G15:G19)</f>
-        <v>6.9295693605572901E-34</v>
+        <v>6.9393381448184192E-34</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="4">
         <f ca="1">J20-$E$2</f>
-        <v>3.034992105572886E-35</v>
+        <v>3.1326799481841768E-35</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -3869,32 +3964,32 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7712155470554336</v>
+        <v>9.7094468640842777</v>
       </c>
       <c r="E21" s="2">
         <v>4</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4428038867638584</v>
+        <v>2.4273617160210694</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.940477867636253E-34</v>
+        <v>6.8966036766505132E-34</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="4">
         <f ca="1">STDEV(G15:G19)</f>
-        <v>7.8471580334638758E-36</v>
+        <v>1.3348970123598641E-35</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="4">
         <f ca="1">L20/$E$2</f>
-        <v>4.5803802810220555E-2</v>
+        <v>4.7278098137614438E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -3910,18 +4005,18 @@
       </c>
       <c r="D22" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>10.130896640387515</v>
+        <v>10.024643375492383</v>
       </c>
       <c r="E22" s="2">
         <v>4</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5327241600968788</v>
+        <v>2.5061608438730958</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1959587395561039E-34</v>
+        <v>7.120487225309242E-34</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -3937,18 +4032,18 @@
       </c>
       <c r="D23" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5877806128102225</v>
+        <v>9.8735778834041188</v>
       </c>
       <c r="E23" s="2">
         <v>4</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3969451532025556</v>
+        <v>2.4683944708510297</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8101843442614812E-34</v>
+        <v>7.0131856619210368E-34</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -3964,18 +4059,18 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>10.145739852293532</v>
+        <v>9.9174365558650397</v>
       </c>
       <c r="E24" s="2">
         <v>4</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5364349630733831</v>
+        <v>2.4793591389662599</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.206501847854374E-34</v>
+        <v>7.044338402749752E-34</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -3991,32 +4086,32 @@
       </c>
       <c r="D25" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>11.7787836155024</v>
+        <v>11.547739772073207</v>
       </c>
       <c r="E25" s="2">
         <v>4</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9446959038756</v>
+        <v>2.8869349430183018</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9196203580899949E-34</v>
+        <v>6.7838902407203323E-34</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J25" s="4">
         <f ca="1">AVERAGE(G19:G24)</f>
-        <v>7.0261371154789849E-34</v>
+        <v>7.0228860470535759E-34</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L25" s="4">
         <f ca="1">J25-$E$2</f>
-        <v>4.0006696547898336E-35</v>
+        <v>3.968158970535744E-35</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -4032,32 +4127,32 @@
       </c>
       <c r="D26" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>11.553808546518576</v>
+        <v>11.919241633979272</v>
       </c>
       <c r="E26" s="2">
         <v>4</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8884521366296441</v>
+        <v>2.979810408494818</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7874554318785737E-34</v>
+        <v>7.0021344950192422E-34</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J26" s="4">
         <f ca="1">STDEV(G19:G24)</f>
-        <v>1.529235967442074E-35</v>
+        <v>7.3635468725166367E-36</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L26" s="4">
         <f ca="1">L25/$E$2</f>
-        <v>6.037771355001173E-2</v>
+        <v>5.9887065495914542E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -4073,18 +4168,18 @@
       </c>
       <c r="D27" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>12.103713722393078</v>
+        <v>11.958645441300437</v>
       </c>
       <c r="E27" s="2">
         <v>4</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0259284305982694</v>
+        <v>2.9896613603251092</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1105053472358952E-34</v>
+        <v>7.0252828434587991E-34</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -4100,18 +4195,18 @@
       </c>
       <c r="D28" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>12.08683800579086</v>
+        <v>11.985710357041325</v>
       </c>
       <c r="E28" s="2">
         <v>4</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0217095014477149</v>
+        <v>2.9964275892603314</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1005914583344672E-34</v>
+        <v>7.0411825278459171E-34</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -4127,18 +4222,18 @@
       </c>
       <c r="D29" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>11.180277166521082</v>
+        <v>11.440206617384485</v>
       </c>
       <c r="E29" s="2">
         <v>4</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7950692916302704</v>
+        <v>2.8600516543461212</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5680189072093952E-34</v>
+        <v>6.720718301185387E-34</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -4147,14 +4242,14 @@
       </c>
       <c r="J31" s="4">
         <f ca="1">AVERAGE(G5:G19)</f>
-        <v>6.9574839750147656E-34</v>
+        <v>6.9414871263279992E-34</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L31" s="4">
         <f ca="1">J31-$E$2</f>
-        <v>3.3141382501476404E-35</v>
+        <v>3.1541697632799768E-35</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -4163,14 +4258,14 @@
       </c>
       <c r="J32" s="4">
         <f ca="1">STDEV(G5:G19)</f>
-        <v>9.3906852812068725E-36</v>
+        <v>1.4407468313688186E-35</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L32" s="4">
         <f ca="1">L31/$E$2</f>
-        <v>5.0016649010992432E-2</v>
+        <v>4.7602420316663507E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4183,8 +4278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CED0B3-2B9C-514C-BDB2-3B1B18A4A63A}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:S10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4312,19 +4407,19 @@
       <c r="O5" s="11">
         <v>650</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="12">
         <f>J5</f>
         <v>6.9414292211365059E-34</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="12">
         <f>J6</f>
         <v>1.6939650089156022E-35</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="12">
         <f>L5</f>
         <v>3.1535907113650432E-35</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="13">
         <f>L6</f>
         <v>4.7593681322028299E-2</v>
       </c>
@@ -4366,19 +4461,19 @@
       <c r="O6" s="11">
         <v>590</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="12">
         <f>J10</f>
         <v>6.8641691634454941E-34</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="12">
         <f>J11</f>
         <v>9.2031258049146755E-36</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="12">
         <f>L10</f>
         <v>2.3809901344549253E-35</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="13">
         <f>L11</f>
         <v>3.593366928744219E-2</v>
       </c>
@@ -4408,19 +4503,19 @@
       <c r="O7" s="11">
         <v>577</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="12">
         <f>J15</f>
         <v>6.9195401358001021E-34</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="12">
         <f>J16</f>
         <v>1.3235792397857454E-35</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="12">
         <f>L15</f>
         <v>2.9346998580010053E-35</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="13">
         <f>L16</f>
         <v>4.4290202058923339E-2</v>
       </c>
@@ -4450,19 +4545,19 @@
       <c r="O8" s="11">
         <v>532</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="12">
         <f>J20</f>
         <v>6.9384371248953977E-34</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="12">
         <f>J21</f>
         <v>1.1965127910354217E-35</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="12">
         <f>L20</f>
         <v>3.1236697489539614E-35</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="13">
         <f>L21</f>
         <v>4.7142117095665834E-2</v>
       </c>
@@ -4492,19 +4587,19 @@
       <c r="O9" s="11">
         <v>440</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="12">
         <f>J25</f>
         <v>6.9105054828925004E-34</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="12">
         <f>J26</f>
         <v>1.2043523467365987E-35</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="12">
         <f>L25</f>
         <v>2.84435332892498E-35</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="13">
         <f>L26</f>
         <v>4.2926701114460418E-2</v>
       </c>
@@ -4543,22 +4638,22 @@
       <c r="L10" s="4">
         <v>2.3809901344549253E-35</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="15">
         <f>J31</f>
         <v>6.9491243801427227E-34</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="15">
         <f>J32</f>
         <v>1.3630516207268066E-35</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="15">
         <f>L31</f>
         <v>3.2305423014272112E-35</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="16">
         <f>L32</f>
         <v>4.8755027162325021E-2</v>
       </c>
